--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dhh-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dhh-Cdon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H2">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I2">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J2">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.12467</v>
+        <v>1.70092</v>
       </c>
       <c r="N2">
-        <v>3.37401</v>
+        <v>5.10276</v>
       </c>
       <c r="O2">
-        <v>0.01913674935358929</v>
+        <v>0.06397439760344623</v>
       </c>
       <c r="P2">
-        <v>0.01913674935358929</v>
+        <v>0.06397439760344621</v>
       </c>
       <c r="Q2">
-        <v>2.65940330447</v>
+        <v>6.99392960292</v>
       </c>
       <c r="R2">
-        <v>23.93462974023</v>
+        <v>62.94536642628</v>
       </c>
       <c r="S2">
-        <v>0.01092099453556749</v>
+        <v>0.04876582659624863</v>
       </c>
       <c r="T2">
-        <v>0.01092099453556749</v>
+        <v>0.04876582659624862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H3">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I3">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J3">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>35.239504</v>
       </c>
       <c r="O3">
-        <v>0.1998718306681982</v>
+        <v>0.4418052270230686</v>
       </c>
       <c r="P3">
-        <v>0.1998718306681982</v>
+        <v>0.4418052270230685</v>
       </c>
       <c r="Q3">
-        <v>27.77586710931022</v>
+        <v>48.29986325396799</v>
       </c>
       <c r="R3">
-        <v>249.982803983792</v>
+        <v>434.6987692857119</v>
       </c>
       <c r="S3">
-        <v>0.1140632157640637</v>
+        <v>0.336775302268147</v>
       </c>
       <c r="T3">
-        <v>0.1140632157640637</v>
+        <v>0.3367753022681469</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H4">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I4">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J4">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.5320596666666667</v>
+        <v>0.040268</v>
       </c>
       <c r="N4">
-        <v>1.596179</v>
+        <v>0.120804</v>
       </c>
       <c r="O4">
-        <v>0.009053226708416042</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="P4">
-        <v>0.00905322670841604</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="Q4">
-        <v>1.258112366924111</v>
+        <v>0.165576016068</v>
       </c>
       <c r="R4">
-        <v>11.323011302317</v>
+        <v>1.490184144612</v>
       </c>
       <c r="S4">
-        <v>0.005166511698776109</v>
+        <v>0.001154494218057133</v>
       </c>
       <c r="T4">
-        <v>0.005166511698776109</v>
+        <v>0.001154494218057133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H5">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I5">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J5">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.06735933333334</v>
+        <v>12.96401166666667</v>
       </c>
       <c r="N5">
-        <v>135.202078</v>
+        <v>38.892035</v>
       </c>
       <c r="O5">
-        <v>0.7668407262487158</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="P5">
-        <v>0.7668407262487157</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="Q5">
-        <v>106.5666233960216</v>
+        <v>53.306084335595</v>
       </c>
       <c r="R5">
-        <v>959.099610564194</v>
+        <v>479.754759020355</v>
       </c>
       <c r="S5">
-        <v>0.4376220446991471</v>
+        <v>0.3716816457731174</v>
       </c>
       <c r="T5">
-        <v>0.4376220446991471</v>
+        <v>0.3716816457731174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H6">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I6">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J6">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05030366666666666</v>
+        <v>0.13581</v>
       </c>
       <c r="N6">
-        <v>0.150911</v>
+        <v>0.40743</v>
       </c>
       <c r="O6">
-        <v>0.0008559387736549429</v>
+        <v>0.005108037378903201</v>
       </c>
       <c r="P6">
-        <v>0.0008559387736549428</v>
+        <v>0.0051080373789032</v>
       </c>
       <c r="Q6">
-        <v>0.1189484358614444</v>
+        <v>0.55843048431</v>
       </c>
       <c r="R6">
-        <v>1.070535922753</v>
+        <v>5.025874358789999</v>
       </c>
       <c r="S6">
-        <v>0.0004884686786218846</v>
+        <v>0.003893708645930747</v>
       </c>
       <c r="T6">
-        <v>0.0004884686786218846</v>
+        <v>0.003893708645930746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.364607666666667</v>
+        <v>0.4412883333333333</v>
       </c>
       <c r="H7">
-        <v>7.093823</v>
+        <v>1.323865</v>
       </c>
       <c r="I7">
-        <v>0.5706817983441447</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J7">
-        <v>0.5706817983441448</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2492753333333333</v>
+        <v>1.70092</v>
       </c>
       <c r="N7">
-        <v>0.7478259999999999</v>
+        <v>5.10276</v>
       </c>
       <c r="O7">
-        <v>0.004241528247425842</v>
+        <v>0.06397439760344623</v>
       </c>
       <c r="P7">
-        <v>0.004241528247425842</v>
+        <v>0.06397439760344621</v>
       </c>
       <c r="Q7">
-        <v>0.5894383643108888</v>
+        <v>0.7505961519333333</v>
       </c>
       <c r="R7">
-        <v>5.304945278797999</v>
+        <v>6.7553653674</v>
       </c>
       <c r="S7">
-        <v>0.002420562967968468</v>
+        <v>0.005233601689915539</v>
       </c>
       <c r="T7">
-        <v>0.002420562967968468</v>
+        <v>0.005233601689915539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -921,10 +921,10 @@
         <v>1.323865</v>
       </c>
       <c r="I8">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J8">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.12467</v>
+        <v>11.74650133333333</v>
       </c>
       <c r="N8">
-        <v>3.37401</v>
+        <v>35.239504</v>
       </c>
       <c r="O8">
-        <v>0.01913674935358929</v>
+        <v>0.4418052270230686</v>
       </c>
       <c r="P8">
-        <v>0.01913674935358929</v>
+        <v>0.4418052270230685</v>
       </c>
       <c r="Q8">
-        <v>0.49630374985</v>
+        <v>5.183593995884444</v>
       </c>
       <c r="R8">
-        <v>4.46673374865</v>
+        <v>46.65234596296</v>
       </c>
       <c r="S8">
-        <v>0.002038100250151301</v>
+        <v>0.03614309269614588</v>
       </c>
       <c r="T8">
-        <v>0.002038100250151302</v>
+        <v>0.03614309269614589</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -983,40 +983,40 @@
         <v>1.323865</v>
       </c>
       <c r="I9">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J9">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>11.74650133333333</v>
+        <v>0.040268</v>
       </c>
       <c r="N9">
-        <v>35.239504</v>
+        <v>0.120804</v>
       </c>
       <c r="O9">
-        <v>0.1998718306681982</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="P9">
-        <v>0.1998718306681982</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="Q9">
-        <v>5.183593995884444</v>
+        <v>0.01776979860666666</v>
       </c>
       <c r="R9">
-        <v>46.65234596296</v>
+        <v>0.15992818746</v>
       </c>
       <c r="S9">
-        <v>0.02128673060174919</v>
+        <v>0.0001239015784690161</v>
       </c>
       <c r="T9">
-        <v>0.02128673060174919</v>
+        <v>0.0001239015784690161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,10 +1045,10 @@
         <v>1.323865</v>
       </c>
       <c r="I10">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J10">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5320596666666667</v>
+        <v>12.96401166666667</v>
       </c>
       <c r="N10">
-        <v>1.596179</v>
+        <v>38.892035</v>
       </c>
       <c r="O10">
-        <v>0.009053226708416042</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="P10">
-        <v>0.00905322670841604</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="Q10">
-        <v>0.2347917235372222</v>
+        <v>5.720867101697222</v>
       </c>
       <c r="R10">
-        <v>2.113125511835</v>
+        <v>51.487803915275</v>
       </c>
       <c r="S10">
-        <v>0.000964185885396384</v>
+        <v>0.03988927954680491</v>
       </c>
       <c r="T10">
-        <v>0.0009641858853963842</v>
+        <v>0.03988927954680492</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,10 +1107,10 @@
         <v>1.323865</v>
       </c>
       <c r="I11">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J11">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.06735933333334</v>
+        <v>0.13581</v>
       </c>
       <c r="N11">
-        <v>135.202078</v>
+        <v>0.40743</v>
       </c>
       <c r="O11">
-        <v>0.7668407262487158</v>
+        <v>0.005108037378903201</v>
       </c>
       <c r="P11">
-        <v>0.7668407262487157</v>
+        <v>0.0051080373789032</v>
       </c>
       <c r="Q11">
-        <v>19.88769988794111</v>
+        <v>0.05993136855000001</v>
       </c>
       <c r="R11">
-        <v>178.98929899147</v>
+        <v>0.5393823169500001</v>
       </c>
       <c r="S11">
-        <v>0.08166999771570793</v>
+        <v>0.0004178770580082716</v>
       </c>
       <c r="T11">
-        <v>0.08166999771570795</v>
+        <v>0.0004178770580082716</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,117 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.4412883333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H12">
-        <v>1.323865</v>
+        <v>0.134002</v>
       </c>
       <c r="I12">
-        <v>0.1065019043983577</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J12">
-        <v>0.1065019043983578</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.05030366666666666</v>
+        <v>1.70092</v>
       </c>
       <c r="N12">
-        <v>0.150911</v>
+        <v>5.10276</v>
       </c>
       <c r="O12">
-        <v>0.0008559387736549429</v>
+        <v>0.06397439760344623</v>
       </c>
       <c r="P12">
-        <v>0.0008559387736549428</v>
+        <v>0.06397439760344621</v>
       </c>
       <c r="Q12">
-        <v>0.02219842122388889</v>
+        <v>0.07597556061333334</v>
       </c>
       <c r="R12">
-        <v>0.199785791015</v>
+        <v>0.68378004552</v>
       </c>
       <c r="S12">
-        <v>9.115910944264628E-05</v>
+        <v>0.0005297466838779347</v>
       </c>
       <c r="T12">
-        <v>9.11591094426463E-05</v>
+        <v>0.0005297466838779346</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.4412883333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H13">
-        <v>1.323865</v>
+        <v>0.134002</v>
       </c>
       <c r="I13">
-        <v>0.1065019043983577</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J13">
-        <v>0.1065019043983578</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2492753333333333</v>
+        <v>11.74650133333333</v>
       </c>
       <c r="N13">
-        <v>0.7478259999999999</v>
+        <v>35.239504</v>
       </c>
       <c r="O13">
-        <v>0.004241528247425842</v>
+        <v>0.4418052270230686</v>
       </c>
       <c r="P13">
-        <v>0.004241528247425842</v>
+        <v>0.4418052270230685</v>
       </c>
       <c r="Q13">
-        <v>0.1100022963877778</v>
+        <v>0.5246848905564444</v>
       </c>
       <c r="R13">
-        <v>0.9900206674899998</v>
+        <v>4.722164015008</v>
       </c>
       <c r="S13">
-        <v>0.0004517308359102808</v>
+        <v>0.003658414345472492</v>
       </c>
       <c r="T13">
-        <v>0.0004517308359102809</v>
+        <v>0.003658414345472492</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04466733333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.134002</v>
+      </c>
+      <c r="I14">
+        <v>0.008280604487464496</v>
+      </c>
+      <c r="J14">
+        <v>0.008280604487464496</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G14">
-        <v>0.06615233333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.198457</v>
-      </c>
-      <c r="I14">
-        <v>0.01596541070364794</v>
-      </c>
-      <c r="J14">
-        <v>0.01596541070364794</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>1.12467</v>
+        <v>0.040268</v>
       </c>
       <c r="N14">
-        <v>3.37401</v>
+        <v>0.120804</v>
       </c>
       <c r="O14">
-        <v>0.01913674935358929</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="P14">
-        <v>0.01913674935358929</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="Q14">
-        <v>0.07439954473</v>
+        <v>0.001798664178666667</v>
       </c>
       <c r="R14">
-        <v>0.66959590257</v>
+        <v>0.016187977608</v>
       </c>
       <c r="S14">
-        <v>0.0003055260629628223</v>
+        <v>1.254135377701284E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003055260629628223</v>
+        <v>1.254135377701284E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06615233333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H15">
-        <v>0.198457</v>
+        <v>0.134002</v>
       </c>
       <c r="I15">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J15">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.74650133333333</v>
+        <v>12.96401166666667</v>
       </c>
       <c r="N15">
-        <v>35.239504</v>
+        <v>38.892035</v>
       </c>
       <c r="O15">
-        <v>0.1998718306681982</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="P15">
-        <v>0.1998718306681982</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="Q15">
-        <v>0.777058471703111</v>
+        <v>0.5790678304522222</v>
       </c>
       <c r="R15">
-        <v>6.993526245327999</v>
+        <v>5.21161047407</v>
       </c>
       <c r="S15">
-        <v>0.003191035864707759</v>
+        <v>0.004037604467095174</v>
       </c>
       <c r="T15">
-        <v>0.00319103586470776</v>
+        <v>0.004037604467095174</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06615233333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H16">
-        <v>0.198457</v>
+        <v>0.134002</v>
       </c>
       <c r="I16">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J16">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5320596666666667</v>
+        <v>0.13581</v>
       </c>
       <c r="N16">
-        <v>1.596179</v>
+        <v>0.40743</v>
       </c>
       <c r="O16">
-        <v>0.009053226708416042</v>
+        <v>0.005108037378903201</v>
       </c>
       <c r="P16">
-        <v>0.00905322670841604</v>
+        <v>0.0051080373789032</v>
       </c>
       <c r="Q16">
-        <v>0.03519698842255555</v>
+        <v>0.006066270540000001</v>
       </c>
       <c r="R16">
-        <v>0.316772895803</v>
+        <v>0.05459643486000001</v>
       </c>
       <c r="S16">
-        <v>0.0001445384825930969</v>
+        <v>4.229763724188223E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001445384825930969</v>
+        <v>4.229763724188222E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.06615233333333333</v>
+        <v>0.372714</v>
       </c>
       <c r="H17">
-        <v>0.198457</v>
+        <v>1.118142</v>
       </c>
       <c r="I17">
-        <v>0.01596541070364794</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J17">
-        <v>0.01596541070364794</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.06735933333334</v>
+        <v>1.70092</v>
       </c>
       <c r="N17">
-        <v>135.202078</v>
+        <v>5.10276</v>
       </c>
       <c r="O17">
-        <v>0.7668407262487158</v>
+        <v>0.06397439760344623</v>
       </c>
       <c r="P17">
-        <v>0.7668407262487157</v>
+        <v>0.06397439760344621</v>
       </c>
       <c r="Q17">
-        <v>2.981310977071778</v>
+        <v>0.63395669688</v>
       </c>
       <c r="R17">
-        <v>26.831798793646</v>
+        <v>5.705610271919999</v>
       </c>
       <c r="S17">
-        <v>0.01224292713884441</v>
+        <v>0.004420322208658391</v>
       </c>
       <c r="T17">
-        <v>0.01224292713884441</v>
+        <v>0.00442032220865839</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,87 +1526,87 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.06615233333333333</v>
+        <v>0.372714</v>
       </c>
       <c r="H18">
-        <v>0.198457</v>
+        <v>1.118142</v>
       </c>
       <c r="I18">
-        <v>0.01596541070364794</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J18">
-        <v>0.01596541070364794</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.05030366666666666</v>
+        <v>11.74650133333333</v>
       </c>
       <c r="N18">
-        <v>0.150911</v>
+        <v>35.239504</v>
       </c>
       <c r="O18">
-        <v>0.0008559387736549429</v>
+        <v>0.4418052270230686</v>
       </c>
       <c r="P18">
-        <v>0.0008559387736549428</v>
+        <v>0.4418052270230685</v>
       </c>
       <c r="Q18">
-        <v>0.003327704925222222</v>
+        <v>4.378085497952</v>
       </c>
       <c r="R18">
-        <v>0.029949344327</v>
+        <v>39.40276948156799</v>
       </c>
       <c r="S18">
-        <v>1.366541405857791E-05</v>
+        <v>0.03052660955116568</v>
       </c>
       <c r="T18">
-        <v>1.366541405857792E-05</v>
+        <v>0.03052660955116567</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.06615233333333333</v>
+        <v>0.372714</v>
       </c>
       <c r="H19">
-        <v>0.198457</v>
+        <v>1.118142</v>
       </c>
       <c r="I19">
-        <v>0.01596541070364794</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J19">
-        <v>0.01596541070364794</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.2492753333333333</v>
+        <v>0.040268</v>
       </c>
       <c r="N19">
-        <v>0.7478259999999999</v>
+        <v>0.120804</v>
       </c>
       <c r="O19">
-        <v>0.004241528247425842</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="P19">
-        <v>0.004241528247425842</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="Q19">
-        <v>0.01649014494244444</v>
+        <v>0.015008447352</v>
       </c>
       <c r="R19">
-        <v>0.148411304482</v>
+        <v>0.135076026168</v>
       </c>
       <c r="S19">
-        <v>6.771774048127763E-05</v>
+        <v>0.0001046477992487925</v>
       </c>
       <c r="T19">
-        <v>6.771774048127763E-05</v>
+        <v>0.0001046477992487925</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H20">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I20">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J20">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.12467</v>
+        <v>12.96401166666667</v>
       </c>
       <c r="N20">
-        <v>3.37401</v>
+        <v>38.892035</v>
       </c>
       <c r="O20">
-        <v>0.01913674935358929</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="P20">
-        <v>0.01913674935358929</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="Q20">
-        <v>1.05102435906</v>
+        <v>4.83186864433</v>
       </c>
       <c r="R20">
-        <v>9.459219231540001</v>
+        <v>43.48681779897</v>
       </c>
       <c r="S20">
-        <v>0.004316092735069422</v>
+        <v>0.03369065487117157</v>
       </c>
       <c r="T20">
-        <v>0.004316092735069423</v>
+        <v>0.03369065487117157</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H21">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I21">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J21">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>11.74650133333333</v>
+        <v>0.13581</v>
       </c>
       <c r="N21">
-        <v>35.239504</v>
+        <v>0.40743</v>
       </c>
       <c r="O21">
-        <v>0.1998718306681982</v>
+        <v>0.005108037378903201</v>
       </c>
       <c r="P21">
-        <v>0.1998718306681982</v>
+        <v>0.0051080373789032</v>
       </c>
       <c r="Q21">
-        <v>10.977316933024</v>
+        <v>0.05061828834</v>
       </c>
       <c r="R21">
-        <v>98.795852397216</v>
+        <v>0.45556459506</v>
       </c>
       <c r="S21">
-        <v>0.04507899123056833</v>
+        <v>0.0003529407374584907</v>
       </c>
       <c r="T21">
-        <v>0.04507899123056833</v>
+        <v>0.0003529407374584906</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,25 +1774,25 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.9345180000000001</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H22">
-        <v>2.803554</v>
+        <v>0.372041</v>
       </c>
       <c r="I22">
-        <v>0.2255394923830099</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J22">
-        <v>0.2255394923830099</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5320596666666667</v>
+        <v>1.70092</v>
       </c>
       <c r="N22">
-        <v>1.596179</v>
+        <v>5.10276</v>
       </c>
       <c r="O22">
-        <v>0.009053226708416042</v>
+        <v>0.06397439760344623</v>
       </c>
       <c r="P22">
-        <v>0.00905322670841604</v>
+        <v>0.06397439760344621</v>
       </c>
       <c r="Q22">
-        <v>0.4972193355740001</v>
+        <v>0.2109373259066667</v>
       </c>
       <c r="R22">
-        <v>4.474974020166</v>
+        <v>1.89843593316</v>
       </c>
       <c r="S22">
-        <v>0.002041860156244462</v>
+        <v>0.001470780182509446</v>
       </c>
       <c r="T22">
-        <v>0.002041860156244462</v>
+        <v>0.001470780182509445</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,25 +1836,25 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.9345180000000001</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H23">
-        <v>2.803554</v>
+        <v>0.372041</v>
       </c>
       <c r="I23">
-        <v>0.2255394923830099</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J23">
-        <v>0.2255394923830099</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>45.06735933333334</v>
+        <v>11.74650133333333</v>
       </c>
       <c r="N23">
-        <v>135.202078</v>
+        <v>35.239504</v>
       </c>
       <c r="O23">
-        <v>0.7668407262487158</v>
+        <v>0.4418052270230686</v>
       </c>
       <c r="P23">
-        <v>0.7668407262487157</v>
+        <v>0.4418052270230685</v>
       </c>
       <c r="Q23">
-        <v>42.116258509468</v>
+        <v>1.456726700851556</v>
       </c>
       <c r="R23">
-        <v>379.046326585212</v>
+        <v>13.110540307664</v>
       </c>
       <c r="S23">
-        <v>0.172952868136754</v>
+        <v>0.01015716281476345</v>
       </c>
       <c r="T23">
-        <v>0.172952868136754</v>
+        <v>0.01015716281476345</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,25 +1898,25 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.9345180000000001</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H24">
-        <v>2.803554</v>
+        <v>0.372041</v>
       </c>
       <c r="I24">
-        <v>0.2255394923830099</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J24">
-        <v>0.2255394923830099</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,90 +1925,90 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.05030366666666666</v>
+        <v>0.040268</v>
       </c>
       <c r="N24">
-        <v>0.150911</v>
+        <v>0.120804</v>
       </c>
       <c r="O24">
-        <v>0.0008559387736549429</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="P24">
-        <v>0.0008559387736549428</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="Q24">
-        <v>0.047009681966</v>
+        <v>0.004993782329333334</v>
       </c>
       <c r="R24">
-        <v>0.423087137694</v>
+        <v>0.044944040964</v>
       </c>
       <c r="S24">
-        <v>0.0001930479965210718</v>
+        <v>3.481961314423391E-05</v>
       </c>
       <c r="T24">
-        <v>0.0001930479965210718</v>
+        <v>3.481961314423391E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.9345180000000001</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H25">
-        <v>2.803554</v>
+        <v>0.372041</v>
       </c>
       <c r="I25">
-        <v>0.2255394923830099</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J25">
-        <v>0.2255394923830099</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2492753333333333</v>
+        <v>12.96401166666667</v>
       </c>
       <c r="N25">
-        <v>0.7478259999999999</v>
+        <v>38.892035</v>
       </c>
       <c r="O25">
-        <v>0.004241528247425842</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="P25">
-        <v>0.004241528247425842</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="Q25">
-        <v>0.232952285956</v>
+        <v>1.607714621492778</v>
       </c>
       <c r="R25">
-        <v>2.096570573604</v>
+        <v>14.469431593435</v>
       </c>
       <c r="S25">
-        <v>0.0009566321278526221</v>
+        <v>0.0112099401765836</v>
       </c>
       <c r="T25">
-        <v>0.0009566321278526221</v>
+        <v>0.0112099401765836</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,25 +2022,25 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.2603533333333333</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H26">
-        <v>0.78106</v>
+        <v>0.372041</v>
       </c>
       <c r="I26">
-        <v>0.06283448648418176</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J26">
-        <v>0.06283448648418177</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,33 +2049,33 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.12467</v>
+        <v>0.13581</v>
       </c>
       <c r="N26">
-        <v>3.37401</v>
+        <v>0.40743</v>
       </c>
       <c r="O26">
-        <v>0.01913674935358929</v>
+        <v>0.005108037378903201</v>
       </c>
       <c r="P26">
-        <v>0.01913674935358929</v>
+        <v>0.0051080373789032</v>
       </c>
       <c r="Q26">
-        <v>0.2928115834</v>
+        <v>0.01684229607</v>
       </c>
       <c r="R26">
-        <v>2.6353042506</v>
+        <v>0.15158066463</v>
       </c>
       <c r="S26">
-        <v>0.001202447818609281</v>
+        <v>0.0001174344805085529</v>
       </c>
       <c r="T26">
-        <v>0.001202447818609281</v>
+        <v>0.0001174344805085529</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,25 +2084,25 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.2603533333333333</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H27">
-        <v>0.78106</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I27">
-        <v>0.06283448648418176</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J27">
-        <v>0.06283448648418177</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,33 +2111,33 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>11.74650133333333</v>
+        <v>1.70092</v>
       </c>
       <c r="N27">
-        <v>35.239504</v>
+        <v>5.10276</v>
       </c>
       <c r="O27">
-        <v>0.1998718306681982</v>
+        <v>0.06397439760344623</v>
       </c>
       <c r="P27">
-        <v>0.1998718306681982</v>
+        <v>0.06397439760344621</v>
       </c>
       <c r="Q27">
-        <v>3.058240777137778</v>
+        <v>0.5097271698133333</v>
       </c>
       <c r="R27">
-        <v>27.52416699424</v>
+        <v>4.58754452832</v>
       </c>
       <c r="S27">
-        <v>0.01255884384268956</v>
+        <v>0.003554120242236291</v>
       </c>
       <c r="T27">
-        <v>0.01255884384268957</v>
+        <v>0.00355412024223629</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,25 +2146,25 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.2603533333333333</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H28">
-        <v>0.78106</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I28">
-        <v>0.06283448648418176</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J28">
-        <v>0.06283448648418177</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,33 +2173,33 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.5320596666666667</v>
+        <v>11.74650133333333</v>
       </c>
       <c r="N28">
-        <v>1.596179</v>
+        <v>35.239504</v>
       </c>
       <c r="O28">
-        <v>0.009053226708416042</v>
+        <v>0.4418052270230686</v>
       </c>
       <c r="P28">
-        <v>0.00905322670841604</v>
+        <v>0.4418052270230685</v>
       </c>
       <c r="Q28">
-        <v>0.1385235077488889</v>
+        <v>3.520160195569778</v>
       </c>
       <c r="R28">
-        <v>1.24671156974</v>
+        <v>31.681441760128</v>
       </c>
       <c r="S28">
-        <v>0.0005688548512482011</v>
+        <v>0.02454464534737411</v>
       </c>
       <c r="T28">
-        <v>0.0005688548512482011</v>
+        <v>0.02454464534737411</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.2996773333333334</v>
+      </c>
+      <c r="H29">
+        <v>0.8990320000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.05555535300647887</v>
+      </c>
+      <c r="J29">
+        <v>0.05555535300647887</v>
+      </c>
+      <c r="K29">
         <v>2</v>
       </c>
-      <c r="F29">
+      <c r="L29">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G29">
-        <v>0.2603533333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.78106</v>
-      </c>
-      <c r="I29">
-        <v>0.06283448648418176</v>
-      </c>
-      <c r="J29">
-        <v>0.06283448648418177</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
       <c r="M29">
-        <v>45.06735933333334</v>
+        <v>0.040268</v>
       </c>
       <c r="N29">
-        <v>135.202078</v>
+        <v>0.120804</v>
       </c>
       <c r="O29">
-        <v>0.7668407262487158</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="P29">
-        <v>0.7668407262487157</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="Q29">
-        <v>11.73343722696444</v>
+        <v>0.01206740685866667</v>
       </c>
       <c r="R29">
-        <v>105.60093504268</v>
+        <v>0.108606661728</v>
       </c>
       <c r="S29">
-        <v>0.04818404324899506</v>
+        <v>8.414112004936795E-05</v>
       </c>
       <c r="T29">
-        <v>0.04818404324899506</v>
+        <v>8.414112004936795E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,60 +2270,60 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.2603533333333333</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H30">
-        <v>0.78106</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I30">
-        <v>0.06283448648418176</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J30">
-        <v>0.06283448648418177</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.05030366666666666</v>
+        <v>12.96401166666667</v>
       </c>
       <c r="N30">
-        <v>0.150911</v>
+        <v>38.892035</v>
       </c>
       <c r="O30">
-        <v>0.0008559387736549429</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="P30">
-        <v>0.0008559387736549428</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="Q30">
-        <v>0.01309672729555555</v>
+        <v>3.885020445568889</v>
       </c>
       <c r="R30">
-        <v>0.11787054566</v>
+        <v>34.96518401012001</v>
       </c>
       <c r="S30">
-        <v>5.378247330450862E-05</v>
+        <v>0.02708866747706384</v>
       </c>
       <c r="T30">
-        <v>5.378247330450862E-05</v>
+        <v>0.02708866747706384</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,424 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.2603533333333333</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H31">
-        <v>0.78106</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I31">
-        <v>0.06283448648418176</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J31">
-        <v>0.06283448648418177</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.2492753333333333</v>
+        <v>0.13581</v>
       </c>
       <c r="N31">
-        <v>0.7478259999999999</v>
+        <v>0.40743</v>
       </c>
       <c r="O31">
-        <v>0.004241528247425842</v>
+        <v>0.005108037378903201</v>
       </c>
       <c r="P31">
-        <v>0.004241528247425842</v>
+        <v>0.0051080373789032</v>
       </c>
       <c r="Q31">
-        <v>0.0648996639511111</v>
+        <v>0.04069917864000001</v>
       </c>
       <c r="R31">
-        <v>0.5840969755599998</v>
+        <v>0.3662926077600001</v>
       </c>
       <c r="S31">
-        <v>0.0002665142493351542</v>
+        <v>0.0002837788197552563</v>
       </c>
       <c r="T31">
-        <v>0.0002665142493351542</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.07655866666666668</v>
-      </c>
-      <c r="H32">
-        <v>0.229676</v>
-      </c>
-      <c r="I32">
-        <v>0.01847690768665779</v>
-      </c>
-      <c r="J32">
-        <v>0.01847690768665779</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1.12467</v>
-      </c>
-      <c r="N32">
-        <v>3.37401</v>
-      </c>
-      <c r="O32">
-        <v>0.01913674935358929</v>
-      </c>
-      <c r="P32">
-        <v>0.01913674935358929</v>
-      </c>
-      <c r="Q32">
-        <v>0.08610323564000001</v>
-      </c>
-      <c r="R32">
-        <v>0.7749291207600001</v>
-      </c>
-      <c r="S32">
-        <v>0.0003535879512289775</v>
-      </c>
-      <c r="T32">
-        <v>0.0003535879512289775</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.07655866666666668</v>
-      </c>
-      <c r="H33">
-        <v>0.229676</v>
-      </c>
-      <c r="I33">
-        <v>0.01847690768665779</v>
-      </c>
-      <c r="J33">
-        <v>0.01847690768665779</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>11.74650133333333</v>
-      </c>
-      <c r="N33">
-        <v>35.239504</v>
-      </c>
-      <c r="O33">
-        <v>0.1998718306681982</v>
-      </c>
-      <c r="P33">
-        <v>0.1998718306681982</v>
-      </c>
-      <c r="Q33">
-        <v>0.8992964800782223</v>
-      </c>
-      <c r="R33">
-        <v>8.093668320703999</v>
-      </c>
-      <c r="S33">
-        <v>0.003693013364419595</v>
-      </c>
-      <c r="T33">
-        <v>0.003693013364419595</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.07655866666666668</v>
-      </c>
-      <c r="H34">
-        <v>0.229676</v>
-      </c>
-      <c r="I34">
-        <v>0.01847690768665779</v>
-      </c>
-      <c r="J34">
-        <v>0.01847690768665779</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.5320596666666667</v>
-      </c>
-      <c r="N34">
-        <v>1.596179</v>
-      </c>
-      <c r="O34">
-        <v>0.009053226708416042</v>
-      </c>
-      <c r="P34">
-        <v>0.00905322670841604</v>
-      </c>
-      <c r="Q34">
-        <v>0.04073377866711112</v>
-      </c>
-      <c r="R34">
-        <v>0.3666040080040001</v>
-      </c>
-      <c r="S34">
-        <v>0.000167275634157788</v>
-      </c>
-      <c r="T34">
-        <v>0.000167275634157788</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.07655866666666668</v>
-      </c>
-      <c r="H35">
-        <v>0.229676</v>
-      </c>
-      <c r="I35">
-        <v>0.01847690768665779</v>
-      </c>
-      <c r="J35">
-        <v>0.01847690768665779</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>45.06735933333334</v>
-      </c>
-      <c r="N35">
-        <v>135.202078</v>
-      </c>
-      <c r="O35">
-        <v>0.7668407262487158</v>
-      </c>
-      <c r="P35">
-        <v>0.7668407262487157</v>
-      </c>
-      <c r="Q35">
-        <v>3.450296940747556</v>
-      </c>
-      <c r="R35">
-        <v>31.052672466728</v>
-      </c>
-      <c r="S35">
-        <v>0.01416884530926714</v>
-      </c>
-      <c r="T35">
-        <v>0.01416884530926714</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.07655866666666668</v>
-      </c>
-      <c r="H36">
-        <v>0.229676</v>
-      </c>
-      <c r="I36">
-        <v>0.01847690768665779</v>
-      </c>
-      <c r="J36">
-        <v>0.01847690768665779</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.05030366666666666</v>
-      </c>
-      <c r="N36">
-        <v>0.150911</v>
-      </c>
-      <c r="O36">
-        <v>0.0008559387736549429</v>
-      </c>
-      <c r="P36">
-        <v>0.0008559387736549428</v>
-      </c>
-      <c r="Q36">
-        <v>0.003851181648444445</v>
-      </c>
-      <c r="R36">
-        <v>0.034660634836</v>
-      </c>
-      <c r="S36">
-        <v>1.581510170625346E-05</v>
-      </c>
-      <c r="T36">
-        <v>1.581510170625346E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.07655866666666668</v>
-      </c>
-      <c r="H37">
-        <v>0.229676</v>
-      </c>
-      <c r="I37">
-        <v>0.01847690768665779</v>
-      </c>
-      <c r="J37">
-        <v>0.01847690768665779</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.2492753333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.7478259999999999</v>
-      </c>
-      <c r="O37">
-        <v>0.004241528247425842</v>
-      </c>
-      <c r="P37">
-        <v>0.004241528247425842</v>
-      </c>
-      <c r="Q37">
-        <v>0.01908418715288889</v>
-      </c>
-      <c r="R37">
-        <v>0.171757684376</v>
-      </c>
-      <c r="S37">
-        <v>7.837032587803868E-05</v>
-      </c>
-      <c r="T37">
-        <v>7.837032587803868E-05</v>
+        <v>0.0002837788197552563</v>
       </c>
     </row>
   </sheetData>
